--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -13,11 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$189</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$189</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$189</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$189</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$189</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="613">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -771,7 +767,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
@@ -786,7 +782,7 @@
     <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
@@ -795,7 +791,7 @@
     <t xml:space="preserve">5449000233509, 5449000259462</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 1L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
@@ -804,7 +800,7 @@
     <t xml:space="preserve">5449000189318, 5449000236241</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Peach - 0.5L</t>
+    <t xml:space="preserve">Fuze Peach-Rose- 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Персик - 0.5л</t>
@@ -816,10 +812,13 @@
     <t xml:space="preserve">5449000189332, 5449000235770</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000193155, 5449000259479</t>
   </si>
   <si>
     <t xml:space="preserve">Juice (JNSD) Availability</t>
@@ -1318,9 +1317,6 @@
     <t xml:space="preserve">NCB Дисплей</t>
   </si>
   <si>
-    <t xml:space="preserve">Other TCCC Displays</t>
-  </si>
-  <si>
     <t xml:space="preserve">111
 112
 113
@@ -1345,7 +1341,7 @@
     <t xml:space="preserve">Confectionary/Biscuits section</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+    <t xml:space="preserve">NCB Display: Lead SKU Fuze Berry-Hibiscus/Lemon - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
@@ -1365,13 +1361,13 @@
     <t xml:space="preserve">BonAqua Still - 1L share on Display</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Berry - 1L</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1L share on Display</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 20</t>
@@ -1587,7 +1583,7 @@
     <t xml:space="preserve">Ice Tea Shelf: Фьюз Зеленый Клубника-Малина - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Ice Tea Shelf: Фьюз Лесн.ягоды - 1л</t>
@@ -1679,10 +1675,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU/ Door RANGE</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD</t>
@@ -1713,10 +1706,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Min 50% Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 50% кока-кола</t>
+    <t xml:space="preserve">Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% кока-кола</t>
   </si>
   <si>
     <t xml:space="preserve">Barnd: Coca-Cola</t>
@@ -1743,7 +1736,7 @@
     <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3 </t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2- 3 полке</t>
@@ -1757,13 +1750,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Coca - Cola shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD coca- cola shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
@@ -1781,7 +1774,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU min 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: w/o other products</t>
@@ -2119,7 +2112,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2130,6 +2123,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
         <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2153,7 +2152,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2212,10 +2211,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2230,6 +2225,10 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2248,7 +2247,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2260,15 +2259,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2288,7 +2287,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2296,7 +2295,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2308,7 +2307,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2369,7 +2368,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2421,170 +2420,171 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="66.5222672064777"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="104.546558704453"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="89.1214574898785"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5465587044534"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.3157894736842"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.0769230769231"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6518218623482"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.2914979757085"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5910931174089"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.5748987854251"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.0080971659919"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6599190283401"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1336032388664"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.2914979757085"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.8866396761134"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.30364372469636"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.3684210526316"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="70.4858299595142"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.6396761133603"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="109.740890688259"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="53.9433198380567"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.3157894736842"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.2712550607287"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.2388663967611"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="25.7246963562753"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.8097165991903"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.8178137651822"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.2631578947368"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="92.7570850202429"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.9716599190283"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.86234817813765"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>174</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>175</v>
       </c>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="AM3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>176</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>177</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>178</v>
       </c>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="AM6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>179</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>180</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>181</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="AM9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>182</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>183</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>184</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>185</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>186</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>187</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>188</v>
       </c>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>1</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>2</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>3</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>4</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>5</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>6</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>7</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>8</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>9</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>10</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>11</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>12</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>13</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>14</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>15</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>16</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>17</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>18</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>19</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>20</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>21</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>22</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>23</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>24</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>25</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>26</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>27</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>28</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>29</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>30</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>31</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>32</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>33</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>34</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>35</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>36</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>37</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>38</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>39</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>40</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>41</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>42</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>43</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>44</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>45</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>46</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>47</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>48</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>49</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>50</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>51</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>52</v>
       </c>
@@ -7627,8 +7627,8 @@
       <c r="M68" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="N68" s="9" t="n">
-        <v>5449000193155</v>
+      <c r="N68" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="O68" s="9"/>
       <c r="P68" s="9"/>
@@ -7674,7 +7674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>53</v>
       </c>
@@ -7691,10 +7691,10 @@
         <v>163</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>85</v>
@@ -7735,13 +7735,13 @@
         <v>53</v>
       </c>
       <c r="AL69" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM69" s="6" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>54</v>
       </c>
@@ -7758,10 +7758,10 @@
         <v>163</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>90</v>
@@ -7773,7 +7773,7 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N70" s="9" t="n">
         <v>4607042434877</v>
@@ -7822,7 +7822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>55</v>
       </c>
@@ -7839,10 +7839,10 @@
         <v>163</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>90</v>
@@ -7854,7 +7854,7 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N71" s="9" t="n">
         <v>4607042434891</v>
@@ -7903,7 +7903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>56</v>
       </c>
@@ -7920,10 +7920,10 @@
         <v>163</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>90</v>
@@ -7935,7 +7935,7 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N72" s="9" t="n">
         <v>4607042438738</v>
@@ -7984,7 +7984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>57</v>
       </c>
@@ -8001,10 +8001,10 @@
         <v>163</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>90</v>
@@ -8016,7 +8016,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N73" s="9" t="n">
         <v>4607042438950</v>
@@ -8065,7 +8065,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>58</v>
       </c>
@@ -8082,10 +8082,10 @@
         <v>163</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>90</v>
@@ -8097,7 +8097,7 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N74" s="9" t="n">
         <v>4607042434884</v>
@@ -8146,7 +8146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>59</v>
       </c>
@@ -8163,10 +8163,10 @@
         <v>163</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>90</v>
@@ -8178,7 +8178,7 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N75" s="9" t="n">
         <v>4607042431388</v>
@@ -8227,7 +8227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>60</v>
       </c>
@@ -8244,10 +8244,10 @@
         <v>163</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>90</v>
@@ -8259,7 +8259,7 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N76" s="9" t="n">
         <v>4607042431333</v>
@@ -8308,7 +8308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>61</v>
       </c>
@@ -8325,10 +8325,10 @@
         <v>163</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>90</v>
@@ -8340,7 +8340,7 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N77" s="9" t="n">
         <v>4607042438776</v>
@@ -8389,7 +8389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>62</v>
       </c>
@@ -8406,10 +8406,10 @@
         <v>163</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>90</v>
@@ -8421,7 +8421,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N78" s="9" t="n">
         <v>4607042431371</v>
@@ -8470,7 +8470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>63</v>
       </c>
@@ -8487,10 +8487,10 @@
         <v>163</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>90</v>
@@ -8502,7 +8502,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N79" s="9" t="n">
         <v>4607174577787</v>
@@ -8551,7 +8551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>64</v>
       </c>
@@ -8568,10 +8568,10 @@
         <v>163</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>90</v>
@@ -8583,7 +8583,7 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N80" s="9" t="n">
         <v>4607042430619</v>
@@ -8632,7 +8632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>65</v>
       </c>
@@ -8649,10 +8649,10 @@
         <v>163</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>90</v>
@@ -8664,7 +8664,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N81" s="9" t="n">
         <v>4607042430565</v>
@@ -8713,7 +8713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>66</v>
       </c>
@@ -8730,10 +8730,10 @@
         <v>163</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>90</v>
@@ -8745,7 +8745,7 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N82" s="9" t="n">
         <v>4607174579309</v>
@@ -8794,7 +8794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>67</v>
       </c>
@@ -8811,10 +8811,10 @@
         <v>163</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>90</v>
@@ -8826,7 +8826,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N83" s="9" t="n">
         <v>4607174579286</v>
@@ -8875,7 +8875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>68</v>
       </c>
@@ -8892,10 +8892,10 @@
         <v>163</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>90</v>
@@ -8907,7 +8907,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N84" s="9" t="n">
         <v>4607174577794</v>
@@ -8956,7 +8956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>69</v>
       </c>
@@ -8973,10 +8973,10 @@
         <v>163</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>90</v>
@@ -8988,7 +8988,7 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N85" s="9" t="n">
         <v>4607042439155</v>
@@ -9037,7 +9037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>70</v>
       </c>
@@ -9054,10 +9054,10 @@
         <v>163</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>90</v>
@@ -9069,7 +9069,7 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N86" s="9" t="n">
         <v>4607042439216</v>
@@ -9118,7 +9118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>71</v>
       </c>
@@ -9135,10 +9135,10 @@
         <v>163</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>90</v>
@@ -9150,7 +9150,7 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N87" s="9" t="n">
         <v>4607042439223</v>
@@ -9199,7 +9199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>72</v>
       </c>
@@ -9216,10 +9216,10 @@
         <v>163</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>90</v>
@@ -9231,7 +9231,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N88" s="9" t="n">
         <v>4650075421239</v>
@@ -9280,7 +9280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>73</v>
       </c>
@@ -9297,10 +9297,10 @@
         <v>163</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>90</v>
@@ -9312,7 +9312,7 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N89" s="9" t="n">
         <v>4650075421178</v>
@@ -9361,7 +9361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>74</v>
       </c>
@@ -9378,10 +9378,10 @@
         <v>163</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>90</v>
@@ -9393,7 +9393,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N90" s="9" t="n">
         <v>4650075421536</v>
@@ -9442,7 +9442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>75</v>
       </c>
@@ -9459,10 +9459,10 @@
         <v>163</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>90</v>
@@ -9474,7 +9474,7 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N91" s="9" t="n">
         <v>4650075421574</v>
@@ -9523,7 +9523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>76</v>
       </c>
@@ -9540,10 +9540,10 @@
         <v>163</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>90</v>
@@ -9555,7 +9555,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N92" s="9" t="n">
         <v>4650075420287</v>
@@ -9604,7 +9604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>77</v>
       </c>
@@ -9621,10 +9621,10 @@
         <v>163</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>90</v>
@@ -9636,7 +9636,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N93" s="9" t="n">
         <v>4650075420980</v>
@@ -9685,7 +9685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>78</v>
       </c>
@@ -9702,10 +9702,10 @@
         <v>163</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>90</v>
@@ -9717,7 +9717,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N94" s="9" t="n">
         <v>4650075421970</v>
@@ -9766,7 +9766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>79</v>
       </c>
@@ -9783,10 +9783,10 @@
         <v>163</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>90</v>
@@ -9798,7 +9798,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N95" s="9" t="n">
         <v>4650075421932</v>
@@ -9847,7 +9847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>80</v>
       </c>
@@ -9864,10 +9864,10 @@
         <v>163</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>90</v>
@@ -9879,7 +9879,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N96" s="9" t="n">
         <v>11111111</v>
@@ -9928,7 +9928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>81</v>
       </c>
@@ -9945,10 +9945,10 @@
         <v>163</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>90</v>
@@ -9960,7 +9960,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N97" s="18" t="n">
         <v>4650075421192</v>
@@ -10009,7 +10009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>82</v>
       </c>
@@ -10026,10 +10026,10 @@
         <v>163</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>90</v>
@@ -10041,7 +10041,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N98" s="9" t="n">
         <v>4650075421550</v>
@@ -10090,7 +10090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>83</v>
       </c>
@@ -10104,13 +10104,13 @@
         <v>41</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>90</v>
@@ -10122,7 +10122,7 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N99" s="9" t="n">
         <v>1111</v>
@@ -10171,7 +10171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>84</v>
       </c>
@@ -10185,13 +10185,13 @@
         <v>41</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>90</v>
@@ -10203,7 +10203,7 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N100" s="9" t="n">
         <v>1111</v>
@@ -10252,7 +10252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>85</v>
       </c>
@@ -10269,10 +10269,10 @@
         <v>163</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>90</v>
@@ -10284,7 +10284,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N101" s="9" t="n">
         <v>4607042438998</v>
@@ -10333,7 +10333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>86</v>
       </c>
@@ -10350,10 +10350,10 @@
         <v>163</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>90</v>
@@ -10365,7 +10365,7 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N102" s="9" t="n">
         <v>4607174579668</v>
@@ -10414,7 +10414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>87</v>
       </c>
@@ -10431,10 +10431,10 @@
         <v>163</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>90</v>
@@ -10446,7 +10446,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N103" s="9" t="n">
         <v>4607174577145</v>
@@ -10495,7 +10495,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>88</v>
       </c>
@@ -10512,10 +10512,10 @@
         <v>163</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>90</v>
@@ -10527,7 +10527,7 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N104" s="9" t="n">
         <v>1111111</v>
@@ -10576,7 +10576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>89</v>
       </c>
@@ -10593,10 +10593,10 @@
         <v>163</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>90</v>
@@ -10608,7 +10608,7 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N105" s="9" t="n">
         <v>4607174579729</v>
@@ -10657,7 +10657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>90</v>
       </c>
@@ -10674,10 +10674,10 @@
         <v>163</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>90</v>
@@ -10689,7 +10689,7 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N106" s="9" t="n">
         <v>4607042438967</v>
@@ -10738,7 +10738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>91</v>
       </c>
@@ -10752,16 +10752,16 @@
         <v>41</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6" t="n">
@@ -10775,7 +10775,7 @@
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
       <c r="R107" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
@@ -10809,13 +10809,13 @@
         <v>91</v>
       </c>
       <c r="AL107" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM107" s="6" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>92</v>
       </c>
@@ -10829,13 +10829,13 @@
         <v>41</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>90</v>
@@ -10847,13 +10847,13 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N108" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
@@ -10861,7 +10861,7 @@
         <v>92</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
@@ -10896,7 +10896,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>93</v>
       </c>
@@ -10910,16 +10910,16 @@
         <v>41</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6" t="n">
@@ -10936,12 +10936,12 @@
         <v>92</v>
       </c>
       <c r="S109" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W109" s="6"/>
       <c r="X109" s="6" t="s">
@@ -10973,7 +10973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>94</v>
       </c>
@@ -10987,16 +10987,16 @@
         <v>41</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -11009,7 +11009,7 @@
         <v>5449000000439</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P110" s="6"/>
       <c r="Q110" s="9"/>
@@ -11040,7 +11040,7 @@
       <c r="AF110" s="6"/>
       <c r="AG110" s="6"/>
       <c r="AH110" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI110" s="6"/>
       <c r="AJ110" s="6" t="n">
@@ -11054,7 +11054,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>95</v>
       </c>
@@ -11065,19 +11065,19 @@
         <v>40</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I111" s="6"/>
       <c r="J111" s="6" t="n">
@@ -11091,7 +11091,7 @@
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
       <c r="R111" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
@@ -11117,10 +11117,10 @@
       <c r="AF111" s="6"/>
       <c r="AG111" s="6"/>
       <c r="AH111" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AI111" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ111" s="6" t="n">
         <v>2</v>
@@ -11129,13 +11129,13 @@
         <v>95</v>
       </c>
       <c r="AL111" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM111" s="6" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>96</v>
       </c>
@@ -11146,16 +11146,16 @@
         <v>40</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>90</v>
@@ -11214,7 +11214,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>97</v>
       </c>
@@ -11225,16 +11225,16 @@
         <v>40</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>90</v>
@@ -11293,7 +11293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>98</v>
       </c>
@@ -11304,16 +11304,16 @@
         <v>40</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>90</v>
@@ -11372,7 +11372,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>99</v>
       </c>
@@ -11383,16 +11383,16 @@
         <v>40</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>90</v>
@@ -11404,7 +11404,7 @@
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N115" s="9" t="n">
         <v>5449000052926</v>
@@ -11451,7 +11451,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>100</v>
       </c>
@@ -11465,16 +11465,16 @@
         <v>41</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6" t="n">
@@ -11488,7 +11488,7 @@
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
       <c r="R116" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
@@ -11496,7 +11496,7 @@
       <c r="V116" s="19"/>
       <c r="W116" s="6"/>
       <c r="X116" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y116" s="6"/>
       <c r="Z116" s="6"/>
@@ -11522,13 +11522,13 @@
         <v>100</v>
       </c>
       <c r="AL116" s="12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM116" s="6" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>101</v>
       </c>
@@ -11542,13 +11542,13 @@
         <v>41</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>90</v>
@@ -11560,13 +11560,13 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O117" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
@@ -11574,14 +11574,14 @@
         <v>92</v>
       </c>
       <c r="S117" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="19"/>
       <c r="W117" s="6"/>
       <c r="X117" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y117" s="6"/>
       <c r="Z117" s="6"/>
@@ -11609,7 +11609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>102</v>
       </c>
@@ -11623,16 +11623,16 @@
         <v>41</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6" t="n">
@@ -11649,16 +11649,16 @@
         <v>92</v>
       </c>
       <c r="S118" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="W118" s="6"/>
       <c r="X118" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y118" s="6"/>
       <c r="Z118" s="6"/>
@@ -11686,7 +11686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>103</v>
       </c>
@@ -11700,16 +11700,16 @@
         <v>41</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="6" t="n">
@@ -11731,7 +11731,7 @@
       <c r="V119" s="19"/>
       <c r="W119" s="6"/>
       <c r="X119" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y119" s="6"/>
       <c r="Z119" s="6"/>
@@ -11755,13 +11755,13 @@
         <v>103</v>
       </c>
       <c r="AL119" s="12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM119" s="6" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>104</v>
       </c>
@@ -11775,23 +11775,23 @@
         <v>41</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N120" s="9" t="n">
         <v>4607042434877</v>
@@ -11810,7 +11810,7 @@
       <c r="V120" s="19"/>
       <c r="W120" s="6"/>
       <c r="X120" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y120" s="6"/>
       <c r="Z120" s="6"/>
@@ -11826,7 +11826,7 @@
       <c r="AF120" s="6"/>
       <c r="AG120" s="6"/>
       <c r="AH120" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI120" s="6"/>
       <c r="AJ120" s="6" t="n">
@@ -11840,7 +11840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>105</v>
       </c>
@@ -11854,23 +11854,23 @@
         <v>41</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N121" s="9" t="n">
         <v>4607042434891</v>
@@ -11889,7 +11889,7 @@
       <c r="V121" s="19"/>
       <c r="W121" s="6"/>
       <c r="X121" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y121" s="6"/>
       <c r="Z121" s="6"/>
@@ -11905,7 +11905,7 @@
       <c r="AF121" s="6"/>
       <c r="AG121" s="6"/>
       <c r="AH121" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI121" s="6"/>
       <c r="AJ121" s="6" t="n">
@@ -11919,7 +11919,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>106</v>
       </c>
@@ -11933,16 +11933,16 @@
         <v>41</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6" t="n">
@@ -11956,7 +11956,7 @@
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
       <c r="R122" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
@@ -11990,13 +11990,13 @@
         <v>106</v>
       </c>
       <c r="AL122" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM122" s="6" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>107</v>
       </c>
@@ -12010,13 +12010,13 @@
         <v>41</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>90</v>
@@ -12028,13 +12028,13 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O123" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
@@ -12042,7 +12042,7 @@
         <v>92</v>
       </c>
       <c r="S123" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
@@ -12077,7 +12077,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>108</v>
       </c>
@@ -12091,16 +12091,16 @@
         <v>41</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6" t="n">
@@ -12117,12 +12117,12 @@
         <v>92</v>
       </c>
       <c r="S124" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="W124" s="6"/>
       <c r="X124" s="6" t="s">
@@ -12154,7 +12154,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>109</v>
       </c>
@@ -12168,29 +12168,29 @@
         <v>41</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N125" s="9" t="s">
         <v>91</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P125" s="9"/>
       <c r="Q125" s="6"/>
@@ -12210,7 +12210,7 @@
       <c r="Y125" s="6"/>
       <c r="Z125" s="6"/>
       <c r="AA125" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AB125" s="6"/>
       <c r="AC125" s="6"/>
@@ -12221,7 +12221,7 @@
       <c r="AF125" s="6"/>
       <c r="AG125" s="6"/>
       <c r="AH125" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AI125" s="6"/>
       <c r="AJ125" s="6" t="n">
@@ -12235,7 +12235,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>110</v>
       </c>
@@ -12249,16 +12249,16 @@
         <v>41</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6" t="n">
@@ -12272,7 +12272,7 @@
       <c r="P126" s="9"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
@@ -12280,10 +12280,7 @@
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
       <c r="X126" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y126" s="6" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z126" s="6"/>
       <c r="AA126" s="6"/>
@@ -12312,7 +12309,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>111</v>
       </c>
@@ -12326,7 +12323,7 @@
         <v>41</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>390</v>
@@ -12344,7 +12341,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N127" s="9" t="s">
         <v>392</v>
@@ -12358,17 +12355,14 @@
         <v>92</v>
       </c>
       <c r="S127" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
       <c r="X127" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y127" s="6" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z127" s="6"/>
       <c r="AA127" s="6"/>
@@ -12393,7 +12387,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>112</v>
       </c>
@@ -12407,7 +12401,7 @@
         <v>41</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>393</v>
@@ -12416,7 +12410,7 @@
         <v>394</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6" t="n">
@@ -12433,7 +12427,7 @@
         <v>92</v>
       </c>
       <c r="S128" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
@@ -12442,10 +12436,7 @@
       </c>
       <c r="W128" s="6"/>
       <c r="X128" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y128" s="6" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z128" s="6"/>
       <c r="AA128" s="6"/>
@@ -12470,7 +12461,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>113</v>
       </c>
@@ -12484,7 +12475,7 @@
         <v>41</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>396</v>
@@ -12493,7 +12484,7 @@
         <v>397</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6" t="n">
@@ -12515,10 +12506,7 @@
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
       <c r="X129" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y129" s="6" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z129" s="6"/>
       <c r="AA129" s="6"/>
@@ -12545,7 +12533,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>114</v>
       </c>
@@ -12559,7 +12547,7 @@
         <v>41</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>399</v>
@@ -12596,10 +12584,7 @@
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
       <c r="X130" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y130" s="6" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z130" s="6"/>
       <c r="AA130" s="6"/>
@@ -12626,7 +12611,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>115</v>
       </c>
@@ -12640,7 +12625,7 @@
         <v>41</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>402</v>
@@ -12649,7 +12634,7 @@
         <v>403</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -12675,10 +12660,7 @@
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
       <c r="X131" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y131" s="6" t="s">
-        <v>386</v>
+        <v>76</v>
       </c>
       <c r="Z131" s="6"/>
       <c r="AA131" s="6"/>
@@ -12705,7 +12687,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>116</v>
       </c>
@@ -12716,7 +12698,7 @@
         <v>40</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>405</v>
@@ -12737,13 +12719,13 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N132" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P132" s="9"/>
       <c r="Q132" s="6"/>
@@ -12751,7 +12733,7 @@
         <v>92</v>
       </c>
       <c r="S132" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
@@ -12786,7 +12768,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>117</v>
       </c>
@@ -12797,7 +12779,7 @@
         <v>40</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>411</v>
@@ -12823,7 +12805,7 @@
       <c r="P133" s="9"/>
       <c r="Q133" s="6"/>
       <c r="R133" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S133" s="6"/>
       <c r="T133" s="6"/>
@@ -12863,7 +12845,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>118</v>
       </c>
@@ -12874,7 +12856,7 @@
         <v>40</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>411</v>
@@ -12942,7 +12924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>119</v>
       </c>
@@ -12953,7 +12935,7 @@
         <v>40</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>411</v>
@@ -12974,7 +12956,7 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N135" s="9" t="s">
         <v>91</v>
@@ -13021,7 +13003,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>120</v>
       </c>
@@ -13032,7 +13014,7 @@
         <v>40</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E136" s="6" t="s">
         <v>411</v>
@@ -13100,7 +13082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>121</v>
       </c>
@@ -13111,7 +13093,7 @@
         <v>40</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>411</v>
@@ -13179,7 +13161,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>122</v>
       </c>
@@ -13190,7 +13172,7 @@
         <v>40</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>411</v>
@@ -13258,7 +13240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>123</v>
       </c>
@@ -13269,7 +13251,7 @@
         <v>40</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>411</v>
@@ -13337,7 +13319,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>124</v>
       </c>
@@ -13348,7 +13330,7 @@
         <v>40</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>411</v>
@@ -13416,7 +13398,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>125</v>
       </c>
@@ -13427,7 +13409,7 @@
         <v>40</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>411</v>
@@ -13495,7 +13477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>126</v>
       </c>
@@ -13506,7 +13488,7 @@
         <v>40</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>411</v>
@@ -13574,7 +13556,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>127</v>
       </c>
@@ -13606,13 +13588,13 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P143" s="9"/>
       <c r="Q143" s="6"/>
@@ -13620,7 +13602,7 @@
         <v>92</v>
       </c>
       <c r="S143" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
@@ -13655,7 +13637,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>128</v>
       </c>
@@ -13666,7 +13648,7 @@
         <v>40</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>411</v>
@@ -13692,7 +13674,7 @@
       <c r="P144" s="9"/>
       <c r="Q144" s="6"/>
       <c r="R144" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S144" s="6"/>
       <c r="T144" s="6"/>
@@ -13732,7 +13714,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>129</v>
       </c>
@@ -13743,7 +13725,7 @@
         <v>40</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>411</v>
@@ -13764,7 +13746,7 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N145" s="9" t="n">
         <v>4607042434877</v>
@@ -13811,7 +13793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>130</v>
       </c>
@@ -13822,7 +13804,7 @@
         <v>40</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>411</v>
@@ -13843,7 +13825,7 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N146" s="9" t="n">
         <v>4607042434891</v>
@@ -13890,7 +13872,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>131</v>
       </c>
@@ -13901,7 +13883,7 @@
         <v>40</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>411</v>
@@ -13922,7 +13904,7 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N147" s="9" t="n">
         <v>4607042438738</v>
@@ -13969,7 +13951,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>132</v>
       </c>
@@ -13980,7 +13962,7 @@
         <v>40</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>411</v>
@@ -14001,7 +13983,7 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N148" s="9" t="n">
         <v>4607042439155</v>
@@ -14048,7 +14030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>133</v>
       </c>
@@ -14059,7 +14041,7 @@
         <v>40</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>411</v>
@@ -14080,7 +14062,7 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N149" s="9" t="n">
         <v>4607042439216</v>
@@ -14127,7 +14109,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>134</v>
       </c>
@@ -14159,7 +14141,7 @@
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N150" s="9" t="s">
         <v>456</v>
@@ -14173,7 +14155,7 @@
         <v>92</v>
       </c>
       <c r="S150" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
@@ -14208,7 +14190,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>135</v>
       </c>
@@ -14219,7 +14201,7 @@
         <v>40</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E151" s="6" t="s">
         <v>411</v>
@@ -14245,7 +14227,7 @@
       <c r="P151" s="9"/>
       <c r="Q151" s="6"/>
       <c r="R151" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S151" s="6"/>
       <c r="T151" s="6"/>
@@ -14285,7 +14267,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>136</v>
       </c>
@@ -14296,7 +14278,7 @@
         <v>40</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>411</v>
@@ -14364,7 +14346,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>137</v>
       </c>
@@ -14396,7 +14378,7 @@
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N153" s="9" t="s">
         <v>465</v>
@@ -14410,7 +14392,7 @@
         <v>92</v>
       </c>
       <c r="S153" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
@@ -14445,7 +14427,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>138</v>
       </c>
@@ -14456,7 +14438,7 @@
         <v>40</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>411</v>
@@ -14482,7 +14464,7 @@
       <c r="P154" s="9"/>
       <c r="Q154" s="6"/>
       <c r="R154" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S154" s="6"/>
       <c r="T154" s="6"/>
@@ -14522,7 +14504,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>139</v>
       </c>
@@ -14533,7 +14515,7 @@
         <v>40</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>411</v>
@@ -14601,7 +14583,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>140</v>
       </c>
@@ -14612,7 +14594,7 @@
         <v>40</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E156" s="6" t="s">
         <v>411</v>
@@ -14680,7 +14662,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>141</v>
       </c>
@@ -14712,7 +14694,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N157" s="9" t="s">
         <v>476</v>
@@ -14726,7 +14708,7 @@
         <v>92</v>
       </c>
       <c r="S157" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
@@ -14761,7 +14743,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>142</v>
       </c>
@@ -14836,7 +14818,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>143</v>
       </c>
@@ -14870,7 +14852,7 @@
       </c>
       <c r="L159" s="6"/>
       <c r="M159" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N159" s="9" t="s">
         <v>488</v>
@@ -14913,7 +14895,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>144</v>
       </c>
@@ -14945,7 +14927,7 @@
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N160" s="9" t="s">
         <v>488</v>
@@ -14988,7 +14970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>145</v>
       </c>
@@ -15011,7 +14993,7 @@
         <v>495</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="6" t="n">
@@ -15067,7 +15049,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>146</v>
       </c>
@@ -15092,9 +15074,7 @@
       <c r="H162" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="I162" s="22" t="s">
-        <v>502</v>
-      </c>
+      <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6" t="n">
         <v>1</v>
@@ -15103,14 +15083,18 @@
         <v>15</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="N162" s="9"/>
+        <v>328</v>
+      </c>
+      <c r="N162" s="9" t="s">
+        <v>488</v>
+      </c>
       <c r="O162" s="9"/>
       <c r="P162" s="9"/>
       <c r="Q162" s="9"/>
       <c r="R162" s="6"/>
-      <c r="S162" s="6"/>
+      <c r="S162" s="6" t="s">
+        <v>489</v>
+      </c>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
@@ -15148,7 +15132,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>147</v>
       </c>
@@ -15165,10 +15149,10 @@
         <v>411</v>
       </c>
       <c r="F163" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="G163" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="H163" s="6" t="s">
         <v>85</v>
@@ -15183,7 +15167,7 @@
       <c r="P163" s="9"/>
       <c r="Q163" s="9"/>
       <c r="R163" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S163" s="6"/>
       <c r="T163" s="6"/>
@@ -15199,7 +15183,7 @@
       <c r="AB163" s="6"/>
       <c r="AC163" s="6"/>
       <c r="AD163" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AE163" s="15" t="n">
         <v>0.025</v>
@@ -15223,13 +15207,13 @@
         <v>147</v>
       </c>
       <c r="AL163" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AM163" s="9" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>148</v>
       </c>
@@ -15244,10 +15228,10 @@
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="G164" s="13" t="s">
-        <v>508</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>85</v>
@@ -15284,7 +15268,7 @@
       <c r="AF164" s="23"/>
       <c r="AG164" s="6"/>
       <c r="AH164" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI164" s="6" t="s">
         <v>485</v>
@@ -15296,13 +15280,13 @@
         <v>148</v>
       </c>
       <c r="AL164" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AM164" s="6" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>149</v>
       </c>
@@ -15317,10 +15301,10 @@
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="G165" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>408</v>
@@ -15332,21 +15316,21 @@
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="N165" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="N165" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
       <c r="Q165" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R165" s="6" t="s">
         <v>92</v>
       </c>
       <c r="S165" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
@@ -15356,20 +15340,20 @@
         <v>482</v>
       </c>
       <c r="Y165" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Z165" s="6"/>
       <c r="AA165" s="6"/>
       <c r="AB165" s="6"/>
       <c r="AC165" s="6"/>
       <c r="AD165" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AE165" s="8"/>
       <c r="AF165" s="6"/>
       <c r="AG165" s="6"/>
       <c r="AH165" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AI165" s="6" t="s">
         <v>485</v>
@@ -15385,7 +15369,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>150</v>
       </c>
@@ -15400,10 +15384,10 @@
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G166" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="H166" s="6" t="s">
         <v>408</v>
@@ -15415,21 +15399,21 @@
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="N166" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="N166" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="O166" s="9"/>
       <c r="P166" s="9"/>
       <c r="Q166" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R166" s="6" t="s">
         <v>92</v>
       </c>
       <c r="S166" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
@@ -15439,20 +15423,20 @@
         <v>482</v>
       </c>
       <c r="Y166" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Z166" s="6"/>
       <c r="AA166" s="6"/>
       <c r="AB166" s="6"/>
       <c r="AC166" s="6"/>
       <c r="AD166" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AE166" s="8"/>
       <c r="AF166" s="6"/>
       <c r="AG166" s="6"/>
       <c r="AH166" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI166" s="6" t="s">
         <v>485</v>
@@ -15468,7 +15452,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>151</v>
       </c>
@@ -15482,11 +15466,11 @@
         <v>41</v>
       </c>
       <c r="E167" s="6"/>
-      <c r="F167" s="13" t="s">
+      <c r="F167" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="H167" s="6" t="s">
         <v>414</v>
@@ -15503,7 +15487,7 @@
       <c r="P167" s="9"/>
       <c r="Q167" s="9"/>
       <c r="R167" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S167" s="6"/>
       <c r="T167" s="6"/>
@@ -15519,13 +15503,13 @@
       <c r="AB167" s="6"/>
       <c r="AC167" s="6"/>
       <c r="AD167" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AE167" s="8"/>
       <c r="AF167" s="6"/>
       <c r="AG167" s="6"/>
       <c r="AH167" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI167" s="6" t="s">
         <v>485</v>
@@ -15537,13 +15521,13 @@
         <v>151</v>
       </c>
       <c r="AL167" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM167" s="6" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>152</v>
       </c>
@@ -15558,10 +15542,10 @@
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="G168" s="13" t="s">
-        <v>526</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>90</v>
@@ -15573,21 +15557,21 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="N168" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="N168" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
       <c r="Q168" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="R168" s="6" t="s">
         <v>92</v>
       </c>
       <c r="S168" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
@@ -15610,7 +15594,7 @@
       <c r="AF168" s="6"/>
       <c r="AG168" s="6"/>
       <c r="AH168" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI168" s="6" t="s">
         <v>485</v>
@@ -15626,7 +15610,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>153</v>
       </c>
@@ -15641,10 +15625,10 @@
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="H169" s="6" t="s">
         <v>90</v>
@@ -15656,21 +15640,21 @@
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="N169" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="N169" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="O169" s="9"/>
       <c r="P169" s="9"/>
       <c r="Q169" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="R169" s="6" t="s">
         <v>92</v>
       </c>
       <c r="S169" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
@@ -15693,7 +15677,7 @@
       <c r="AF169" s="6"/>
       <c r="AG169" s="6"/>
       <c r="AH169" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI169" s="6" t="s">
         <v>485</v>
@@ -15709,7 +15693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>154</v>
       </c>
@@ -15724,24 +15708,22 @@
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="G170" s="6" t="s">
+      <c r="H170" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="H170" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>533</v>
-      </c>
+      <c r="I170" s="6"/>
       <c r="J170" s="6" t="n">
         <v>2</v>
       </c>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N170" s="9" t="s">
         <v>488</v>
@@ -15753,7 +15735,7 @@
         <v>92</v>
       </c>
       <c r="S170" s="13" t="s">
-        <v>93</v>
+        <v>489</v>
       </c>
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
@@ -15774,7 +15756,7 @@
       <c r="AF170" s="6"/>
       <c r="AG170" s="6"/>
       <c r="AH170" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AI170" s="6" t="s">
         <v>485</v>
@@ -15790,7 +15772,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>155</v>
       </c>
@@ -15807,13 +15789,13 @@
         <v>411</v>
       </c>
       <c r="F171" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="G171" s="6" t="s">
+      <c r="H171" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="H171" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
@@ -15867,7 +15849,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>156</v>
       </c>
@@ -15878,16 +15860,16 @@
         <v>40</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E172" s="24" t="s">
         <v>411</v>
       </c>
       <c r="F172" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>480</v>
@@ -15912,7 +15894,7 @@
       <c r="V172" s="6"/>
       <c r="W172" s="6"/>
       <c r="X172" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
@@ -15936,13 +15918,13 @@
         <v>156</v>
       </c>
       <c r="AL172" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AM172" s="25" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="n">
         <v>157</v>
       </c>
@@ -15953,19 +15935,19 @@
         <v>40</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E173" s="24" t="s">
         <v>411</v>
       </c>
       <c r="F173" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="G173" s="6" t="s">
+      <c r="H173" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="H173" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="I173" s="6"/>
       <c r="J173" s="6" t="n">
@@ -15976,7 +15958,7 @@
       </c>
       <c r="L173" s="6"/>
       <c r="M173" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N173" s="9" t="s">
         <v>488</v>
@@ -15995,7 +15977,7 @@
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
       <c r="X173" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
@@ -16003,13 +15985,13 @@
       <c r="AB173" s="6"/>
       <c r="AC173" s="6"/>
       <c r="AD173" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AE173" s="8"/>
       <c r="AF173" s="6"/>
       <c r="AG173" s="6"/>
       <c r="AH173" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AI173" s="6"/>
       <c r="AJ173" s="6" t="n">
@@ -16023,7 +16005,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
         <v>158</v>
       </c>
@@ -16034,16 +16016,16 @@
         <v>40</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E174" s="6" t="s">
         <v>411</v>
       </c>
       <c r="F174" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G174" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>85</v>
@@ -16084,13 +16066,13 @@
         <v>158</v>
       </c>
       <c r="AL174" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM174" s="24" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
         <v>159</v>
       </c>
@@ -16101,19 +16083,19 @@
         <v>40</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E175" s="6" t="s">
         <v>411</v>
       </c>
       <c r="F175" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="G175" s="6" t="s">
+      <c r="H175" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="H175" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="I175" s="6"/>
       <c r="J175" s="6" t="n">
@@ -16123,7 +16105,7 @@
       <c r="L175" s="6"/>
       <c r="M175" s="6"/>
       <c r="N175" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O175" s="9"/>
       <c r="P175" s="9"/>
@@ -16140,7 +16122,7 @@
       <c r="W175" s="6"/>
       <c r="X175" s="6"/>
       <c r="Y175" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="Z175" s="6"/>
       <c r="AA175" s="17"/>
@@ -16167,7 +16149,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
         <v>160</v>
       </c>
@@ -16178,19 +16160,19 @@
         <v>40</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>411</v>
       </c>
       <c r="F176" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G176" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="G176" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="H176" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I176" s="6"/>
       <c r="J176" s="6" t="n">
@@ -16200,7 +16182,7 @@
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
       <c r="N176" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O176" s="9"/>
       <c r="P176" s="9"/>
@@ -16217,7 +16199,7 @@
       <c r="W176" s="6"/>
       <c r="X176" s="6"/>
       <c r="Y176" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="Z176" s="6"/>
       <c r="AA176" s="17"/>
@@ -16244,7 +16226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
         <v>161</v>
       </c>
@@ -16255,19 +16237,19 @@
         <v>40</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>411</v>
       </c>
       <c r="F177" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="G177" s="6" t="s">
-        <v>556</v>
-      </c>
       <c r="H177" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6" t="n">
@@ -16277,7 +16259,7 @@
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
       <c r="N177" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O177" s="9"/>
       <c r="P177" s="9"/>
@@ -16294,7 +16276,7 @@
       <c r="W177" s="6"/>
       <c r="X177" s="6"/>
       <c r="Y177" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Z177" s="6"/>
       <c r="AA177" s="17"/>
@@ -16321,7 +16303,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
         <v>162</v>
       </c>
@@ -16332,19 +16314,19 @@
         <v>40</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E178" s="6" t="s">
         <v>411</v>
       </c>
       <c r="F178" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="G178" s="6" t="s">
-        <v>559</v>
-      </c>
       <c r="H178" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I178" s="6"/>
       <c r="J178" s="6" t="n">
@@ -16354,7 +16336,7 @@
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
       <c r="N178" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O178" s="9"/>
       <c r="P178" s="9"/>
@@ -16371,7 +16353,7 @@
       <c r="W178" s="6"/>
       <c r="X178" s="6"/>
       <c r="Y178" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z178" s="6"/>
       <c r="AA178" s="17"/>
@@ -16398,7 +16380,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
         <v>163</v>
       </c>
@@ -16409,22 +16391,22 @@
         <v>40</v>
       </c>
       <c r="D179" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E179" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="E179" s="24" t="s">
+      <c r="F179" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="F179" s="24" t="s">
+      <c r="G179" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="G179" s="24" t="s">
+      <c r="H179" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="H179" s="6" t="s">
+      <c r="I179" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="I179" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
@@ -16436,7 +16418,7 @@
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
       <c r="S179" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
@@ -16463,7 +16445,7 @@
       </c>
       <c r="AM179" s="6"/>
     </row>
-    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="n">
         <v>164</v>
       </c>
@@ -16474,22 +16456,22 @@
         <v>40</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E180" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F180" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F180" s="6" t="s">
+      <c r="G180" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="G180" s="21" t="s">
-        <v>570</v>
-      </c>
       <c r="H180" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="I180" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="I180" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
@@ -16501,7 +16483,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
       <c r="S180" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
@@ -16524,11 +16506,11 @@
         <v>163</v>
       </c>
       <c r="AL180" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM180" s="6"/>
     </row>
-    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="n">
         <v>165</v>
       </c>
@@ -16539,22 +16521,22 @@
         <v>40</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E181" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="F181" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="F181" s="24" t="s">
-        <v>573</v>
-      </c>
       <c r="G181" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H181" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="I181" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
@@ -16566,7 +16548,7 @@
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
       <c r="S181" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
@@ -16589,11 +16571,11 @@
         <v>164</v>
       </c>
       <c r="AL181" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AM181" s="6"/>
     </row>
-    <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="n">
         <v>166</v>
       </c>
@@ -16604,22 +16586,22 @@
         <v>40</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E182" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="F182" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="F182" s="24" t="s">
+      <c r="G182" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="G182" s="24" t="s">
+      <c r="H182" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="H182" s="6" t="s">
+      <c r="I182" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="I182" s="6" t="s">
-        <v>579</v>
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
@@ -16631,7 +16613,7 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
@@ -16654,11 +16636,11 @@
         <v>167</v>
       </c>
       <c r="AL182" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AM182" s="6"/>
     </row>
-    <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
         <v>167</v>
       </c>
@@ -16669,22 +16651,22 @@
         <v>40</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E183" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="F183" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="F183" s="24" t="s">
+      <c r="G183" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="G183" s="24" t="s">
+      <c r="H183" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="H183" s="6" t="s">
-        <v>584</v>
-      </c>
       <c r="I183" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
@@ -16696,7 +16678,7 @@
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
       <c r="S183" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
@@ -16723,7 +16705,7 @@
       </c>
       <c r="AM183" s="6"/>
     </row>
-    <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="n">
         <v>168</v>
       </c>
@@ -16734,36 +16716,36 @@
         <v>40</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E184" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="F184" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="F184" s="24" t="s">
+      <c r="G184" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="G184" s="24" t="s">
+      <c r="H184" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="H184" s="6" t="s">
-        <v>588</v>
-      </c>
       <c r="I184" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
       <c r="N184" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O184" s="6"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
       <c r="S184" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
@@ -16788,7 +16770,7 @@
       <c r="AL184" s="6"/>
       <c r="AM184" s="6"/>
     </row>
-    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>169</v>
       </c>
@@ -16799,43 +16781,43 @@
         <v>40</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E185" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="F185" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="F185" s="24" t="s">
+      <c r="G185" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="G185" s="24" t="s">
+      <c r="H185" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="H185" s="6" t="s">
+      <c r="I185" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="I185" s="6" t="s">
-        <v>595</v>
       </c>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
       <c r="N185" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O185" s="6"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
       <c r="S185" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
       <c r="X185" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
@@ -16847,7 +16829,7 @@
       <c r="AF185" s="6"/>
       <c r="AG185" s="6"/>
       <c r="AH185" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AI185" s="6"/>
       <c r="AJ185" s="6"/>
@@ -16857,7 +16839,7 @@
       <c r="AL185" s="6"/>
       <c r="AM185" s="6"/>
     </row>
-    <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="n">
         <v>170</v>
       </c>
@@ -16868,38 +16850,38 @@
         <v>40</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E186" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="F186" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F186" s="24" t="s">
+      <c r="G186" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="G186" s="24" t="s">
+      <c r="H186" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="H186" s="6" t="s">
-        <v>602</v>
-      </c>
       <c r="I186" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="N186" s="12" t="s">
         <v>603</v>
-      </c>
-      <c r="N186" s="12" t="s">
-        <v>604</v>
       </c>
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
       <c r="S186" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
@@ -16926,7 +16908,7 @@
       </c>
       <c r="AM186" s="6"/>
     </row>
-    <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="n">
         <v>171</v>
       </c>
@@ -16937,38 +16919,38 @@
         <v>40</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E187" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="F187" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F187" s="24" t="s">
+      <c r="G187" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="G187" s="24" t="s">
+      <c r="H187" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="H187" s="6" t="s">
-        <v>602</v>
-      </c>
       <c r="I187" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="N187" s="12" t="s">
         <v>603</v>
-      </c>
-      <c r="N187" s="12" t="s">
-        <v>604</v>
       </c>
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
       <c r="S187" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
@@ -16995,7 +16977,7 @@
       </c>
       <c r="AM187" s="6"/>
     </row>
-    <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="n">
         <v>172</v>
       </c>
@@ -17006,38 +16988,38 @@
         <v>40</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E188" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="F188" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F188" s="24" t="s">
+      <c r="G188" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="G188" s="24" t="s">
+      <c r="H188" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="H188" s="6" t="s">
-        <v>602</v>
-      </c>
       <c r="I188" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N188" s="27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O188" s="6"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
       <c r="S188" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
@@ -17064,7 +17046,7 @@
       </c>
       <c r="AM188" s="6"/>
     </row>
-    <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="n">
         <v>173</v>
       </c>
@@ -17075,38 +17057,38 @@
         <v>40</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E189" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="F189" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F189" s="24" t="s">
+      <c r="G189" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="G189" s="24" t="s">
+      <c r="H189" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="H189" s="6" t="s">
-        <v>602</v>
-      </c>
       <c r="I189" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N189" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O189" s="6"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6"/>
       <c r="R189" s="6"/>
       <c r="S189" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
@@ -17129,7 +17111,7 @@
         <v>175</v>
       </c>
       <c r="AL189" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AM189" s="6"/>
     </row>
@@ -17182,10 +17164,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>608</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>609</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>33</v>
@@ -17194,18 +17176,18 @@
         <v>30</v>
       </c>
       <c r="K1" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>610</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>611</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Conv_B_CAP" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$Q$191</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$Q$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$Q$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="614">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2033,6 +2034,12 @@
 161
 176
 145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2354,6 +2361,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2435,56 +2446,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN191"/>
+  <dimension ref="1:192"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H177" activeCellId="0" sqref="H177"/>
+      <selection pane="bottomLeft" activeCell="A192" activeCellId="0" sqref="192:192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="91.4777327935223"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.2874493927126"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="45.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="62.5506072874494"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="54.2024291497976"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="53.0971659919028"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="77.668016194332"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="113.109311740891"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="15.6113360323887"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="86.8016194331984"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17429,8 +17441,71 @@
       </c>
       <c r="AN191" s="10"/>
     </row>
+    <row r="192" s="38" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="10" t="n">
+        <v>521</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="G192" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="10"/>
+      <c r="N192" s="16"/>
+      <c r="O192" s="10"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
+      <c r="R192" s="10"/>
+      <c r="S192" s="10"/>
+      <c r="T192" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="U192" s="10"/>
+      <c r="V192" s="10"/>
+      <c r="W192" s="10"/>
+      <c r="X192" s="10"/>
+      <c r="Y192" s="10"/>
+      <c r="Z192" s="10"/>
+      <c r="AA192" s="10"/>
+      <c r="AB192" s="10"/>
+      <c r="AC192" s="10"/>
+      <c r="AD192" s="10"/>
+      <c r="AE192" s="13"/>
+      <c r="AF192" s="10"/>
+      <c r="AG192" s="10"/>
+      <c r="AH192" s="10"/>
+      <c r="AI192" s="10"/>
+      <c r="AJ192" s="10"/>
+      <c r="AK192" s="10"/>
+      <c r="AL192" s="10" t="n">
+        <v>521</v>
+      </c>
+      <c r="AM192" s="10"/>
+      <c r="AN192" s="10"/>
+      <c r="AMJ192" s="0"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q191"/>
+  <autoFilter ref="A1:AN191"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -11,13 +11,12 @@
     <sheet name="Conv_B_CAP" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$Q$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AN$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$Q$191</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$Q$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="612">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2034,12 +2033,6 @@
 161
 176
 145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2361,10 +2354,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2446,57 +2435,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:192"/>
+  <dimension ref="A1:AN191"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A192" activeCellId="0" sqref="192:192"/>
+      <selection pane="bottomLeft" activeCell="H177" activeCellId="0" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0404858299595"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.2874493927126"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="45.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="54.2024291497976"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="53.0971659919028"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="77.668016194332"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="113.109311740891"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="15.6113360323887"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="86.8016194331984"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="91.4777327935223"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="2" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="2" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17441,71 +17429,8 @@
       </c>
       <c r="AN191" s="10"/>
     </row>
-    <row r="192" s="38" customFormat="true" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10" t="n">
-        <v>521</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D192" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="G192" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="H192" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="I192" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="J192" s="10"/>
-      <c r="K192" s="10"/>
-      <c r="L192" s="10"/>
-      <c r="M192" s="10"/>
-      <c r="N192" s="16"/>
-      <c r="O192" s="10"/>
-      <c r="P192" s="10"/>
-      <c r="Q192" s="10"/>
-      <c r="R192" s="10"/>
-      <c r="S192" s="10"/>
-      <c r="T192" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="U192" s="10"/>
-      <c r="V192" s="10"/>
-      <c r="W192" s="10"/>
-      <c r="X192" s="10"/>
-      <c r="Y192" s="10"/>
-      <c r="Z192" s="10"/>
-      <c r="AA192" s="10"/>
-      <c r="AB192" s="10"/>
-      <c r="AC192" s="10"/>
-      <c r="AD192" s="10"/>
-      <c r="AE192" s="13"/>
-      <c r="AF192" s="10"/>
-      <c r="AG192" s="10"/>
-      <c r="AH192" s="10"/>
-      <c r="AI192" s="10"/>
-      <c r="AJ192" s="10"/>
-      <c r="AK192" s="10"/>
-      <c r="AL192" s="10" t="n">
-        <v>521</v>
-      </c>
-      <c r="AM192" s="10"/>
-      <c r="AN192" s="10"/>
-      <c r="AMJ192" s="0"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN191"/>
+  <autoFilter ref="A1:Q191"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="607">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1538,11 +1539,6 @@
   </si>
   <si>
     <t xml:space="preserve">Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135
-136
-</t>
   </si>
   <si>
     <t xml:space="preserve">Water Shelf: BonAqua Still - 1L</t>
@@ -2448,53 +2444,53 @@
   </sheetPr>
   <dimension ref="A1:AM191"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="Y165" activeCellId="0" sqref="Y165"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A151" activeCellId="0" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="85.2672064777328"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="122.971659919028"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.0161943319838"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="124.14979757085"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="93.5141700404858"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="94.3724696356275"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -14260,8 +14256,8 @@
       <c r="AK151" s="7" t="n">
         <v>135</v>
       </c>
-      <c r="AL151" s="13" t="s">
-        <v>459</v>
+      <c r="AL151" s="13" t="n">
+        <v>136</v>
       </c>
       <c r="AM151" s="7" t="n">
         <v>503</v>
@@ -14284,10 +14280,10 @@
         <v>411</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>90</v>
@@ -14360,13 +14356,13 @@
         <v>41</v>
       </c>
       <c r="E153" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F153" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="G153" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>408</v>
@@ -14381,10 +14377,10 @@
         <v>327</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P153" s="11"/>
       <c r="Q153" s="7"/>
@@ -14444,10 +14440,10 @@
         <v>411</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>414</v>
@@ -14498,7 +14494,7 @@
         <v>138</v>
       </c>
       <c r="AL154" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AM154" s="22" t="n">
         <v>504</v>
@@ -14521,10 +14517,10 @@
         <v>411</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G155" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>470</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>90</v>
@@ -14600,10 +14596,10 @@
         <v>411</v>
       </c>
       <c r="F156" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G156" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>90</v>
@@ -14676,13 +14672,13 @@
         <v>41</v>
       </c>
       <c r="E157" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F157" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="G157" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>408</v>
@@ -14697,10 +14693,10 @@
         <v>327</v>
       </c>
       <c r="N157" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P157" s="11"/>
       <c r="Q157" s="7"/>
@@ -14757,16 +14753,16 @@
         <v>41</v>
       </c>
       <c r="E158" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F158" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="G158" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="9"/>
@@ -14778,7 +14774,7 @@
       <c r="P158" s="11"/>
       <c r="Q158" s="11"/>
       <c r="R158" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S158" s="7"/>
       <c r="T158" s="7"/>
@@ -14786,7 +14782,7 @@
       <c r="V158" s="7"/>
       <c r="W158" s="7"/>
       <c r="X158" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
@@ -14802,7 +14798,7 @@
       <c r="AF158" s="7"/>
       <c r="AG158" s="7"/>
       <c r="AH158" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AI158" s="7"/>
       <c r="AJ158" s="7" t="n">
@@ -14812,7 +14808,7 @@
         <v>142</v>
       </c>
       <c r="AL158" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AM158" s="7" t="n">
         <v>311</v>
@@ -14832,16 +14828,16 @@
         <v>41</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F159" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="H159" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="9" t="n">
@@ -14855,21 +14851,21 @@
         <v>327</v>
       </c>
       <c r="N159" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
       <c r="Q159" s="11"/>
       <c r="R159" s="7"/>
       <c r="S159" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T159" s="7"/>
       <c r="U159" s="7"/>
       <c r="V159" s="7"/>
       <c r="W159" s="7"/>
       <c r="X159" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -14909,16 +14905,16 @@
         <v>41</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="H160" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="9" t="n">
@@ -14930,21 +14926,21 @@
         <v>327</v>
       </c>
       <c r="N160" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
       <c r="Q160" s="11"/>
       <c r="R160" s="7"/>
       <c r="S160" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
       <c r="W160" s="7"/>
       <c r="X160" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -14987,10 +14983,10 @@
         <v>411</v>
       </c>
       <c r="F161" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>332</v>
@@ -15008,16 +15004,16 @@
       <c r="Q161" s="11"/>
       <c r="R161" s="7"/>
       <c r="S161" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
       <c r="V161" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W161" s="7"/>
       <c r="X161" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -15033,10 +15029,10 @@
       <c r="AF161" s="7"/>
       <c r="AG161" s="7"/>
       <c r="AH161" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI161" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ161" s="7" t="n">
         <v>2</v>
@@ -15066,13 +15062,13 @@
         <v>411</v>
       </c>
       <c r="F162" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="H162" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="9"/>
@@ -15086,21 +15082,21 @@
         <v>327</v>
       </c>
       <c r="N162" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
       <c r="Q162" s="11"/>
       <c r="R162" s="7"/>
       <c r="S162" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T162" s="7"/>
       <c r="U162" s="7"/>
       <c r="V162" s="7"/>
       <c r="W162" s="7"/>
       <c r="X162" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -15116,10 +15112,10 @@
       <c r="AF162" s="7"/>
       <c r="AG162" s="7"/>
       <c r="AH162" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI162" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ162" s="7" t="n">
         <v>2</v>
@@ -15149,10 +15145,10 @@
         <v>411</v>
       </c>
       <c r="F163" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>85</v>
@@ -15175,7 +15171,7 @@
       <c r="V163" s="7"/>
       <c r="W163" s="7"/>
       <c r="X163" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
@@ -15191,10 +15187,10 @@
       <c r="AF163" s="23"/>
       <c r="AG163" s="7"/>
       <c r="AH163" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI163" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ163" s="7" t="n">
         <v>2</v>
@@ -15203,7 +15199,7 @@
         <v>147</v>
       </c>
       <c r="AL163" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AM163" s="11" t="n">
         <v>312</v>
@@ -15224,10 +15220,10 @@
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>408</v>
@@ -15239,31 +15235,31 @@
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
       <c r="M164" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="N164" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="N164" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
       <c r="Q164" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R164" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S164" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T164" s="7"/>
       <c r="U164" s="7"/>
       <c r="V164" s="7"/>
       <c r="W164" s="7"/>
       <c r="X164" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y164" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Z164" s="7"/>
       <c r="AA164" s="7"/>
@@ -15276,10 +15272,10 @@
       <c r="AF164" s="7"/>
       <c r="AG164" s="7"/>
       <c r="AH164" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AI164" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ164" s="7" t="n">
         <v>3</v>
@@ -15307,10 +15303,10 @@
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>408</v>
@@ -15322,31 +15318,31 @@
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="N165" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="N165" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
       <c r="Q165" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R165" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S165" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
       <c r="W165" s="7"/>
       <c r="X165" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y165" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Z165" s="7"/>
       <c r="AA165" s="7"/>
@@ -15359,10 +15355,10 @@
       <c r="AF165" s="7"/>
       <c r="AG165" s="7"/>
       <c r="AH165" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI165" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ165" s="7" t="n">
         <v>3</v>
@@ -15390,10 +15386,10 @@
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>364</v>
@@ -15418,7 +15414,7 @@
       <c r="V166" s="7"/>
       <c r="W166" s="7"/>
       <c r="X166" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
@@ -15432,10 +15428,10 @@
       <c r="AF166" s="7"/>
       <c r="AG166" s="7"/>
       <c r="AH166" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI166" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ166" s="7" t="n">
         <v>3</v>
@@ -15444,7 +15440,7 @@
         <v>151</v>
       </c>
       <c r="AL166" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AM166" s="7" t="n">
         <v>147</v>
@@ -15465,10 +15461,10 @@
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>90</v>
@@ -15480,28 +15476,28 @@
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
       <c r="M167" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="N167" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="N167" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
       <c r="Q167" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R167" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S167" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T167" s="7"/>
       <c r="U167" s="7"/>
       <c r="V167" s="7"/>
       <c r="W167" s="7"/>
       <c r="X167" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y167" s="7"/>
       <c r="Z167" s="7"/>
@@ -15517,10 +15513,10 @@
       <c r="AF167" s="7"/>
       <c r="AG167" s="7"/>
       <c r="AH167" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI167" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ167" s="7" t="n">
         <v>4</v>
@@ -15548,10 +15544,10 @@
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>90</v>
@@ -15563,28 +15559,28 @@
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
       <c r="M168" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="N168" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="N168" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="O168" s="11"/>
       <c r="P168" s="11"/>
       <c r="Q168" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R168" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T168" s="7"/>
       <c r="U168" s="7"/>
       <c r="V168" s="7"/>
       <c r="W168" s="7"/>
       <c r="X168" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
@@ -15600,10 +15596,10 @@
       <c r="AF168" s="7"/>
       <c r="AG168" s="7"/>
       <c r="AH168" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI168" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ168" s="7" t="n">
         <v>4</v>
@@ -15631,13 +15627,13 @@
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="9" t="n">
@@ -15649,7 +15645,7 @@
         <v>327</v>
       </c>
       <c r="N169" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
@@ -15658,14 +15654,14 @@
         <v>92</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T169" s="7"/>
       <c r="U169" s="7"/>
       <c r="V169" s="7"/>
       <c r="W169" s="7"/>
       <c r="X169" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y169" s="7"/>
       <c r="Z169" s="7"/>
@@ -15679,10 +15675,10 @@
       <c r="AF169" s="7"/>
       <c r="AG169" s="7"/>
       <c r="AH169" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI169" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ169" s="7" t="n">
         <v>3</v>
@@ -15712,13 +15708,13 @@
         <v>411</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="H170" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="9"/>
@@ -15726,21 +15722,21 @@
       <c r="L170" s="9"/>
       <c r="M170" s="7"/>
       <c r="N170" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O170" s="11"/>
       <c r="P170" s="11"/>
       <c r="Q170" s="11"/>
       <c r="R170" s="7"/>
       <c r="S170" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T170" s="7"/>
       <c r="U170" s="7"/>
       <c r="V170" s="7"/>
       <c r="W170" s="7"/>
       <c r="X170" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y170" s="7"/>
       <c r="Z170" s="7"/>
@@ -15756,10 +15752,10 @@
       <c r="AF170" s="7"/>
       <c r="AG170" s="7"/>
       <c r="AH170" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI170" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ170" s="7" t="n">
         <v>2</v>
@@ -15789,13 +15785,13 @@
         <v>411</v>
       </c>
       <c r="F171" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G171" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="H171" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="9" t="n">
@@ -15817,7 +15813,7 @@
       <c r="V171" s="7"/>
       <c r="W171" s="7"/>
       <c r="X171" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Y171" s="7"/>
       <c r="Z171" s="7"/>
@@ -15841,7 +15837,7 @@
         <v>156</v>
       </c>
       <c r="AL171" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM171" s="26" t="n">
         <v>301</v>
@@ -15864,13 +15860,13 @@
         <v>411</v>
       </c>
       <c r="F172" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="H172" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="9" t="n">
@@ -15884,7 +15880,7 @@
         <v>327</v>
       </c>
       <c r="N172" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O172" s="11"/>
       <c r="P172" s="11"/>
@@ -15893,14 +15889,14 @@
         <v>92</v>
       </c>
       <c r="S172" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T172" s="7"/>
       <c r="U172" s="7"/>
       <c r="V172" s="7"/>
       <c r="W172" s="7"/>
       <c r="X172" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Y172" s="7"/>
       <c r="Z172" s="7"/>
@@ -15908,13 +15904,13 @@
       <c r="AB172" s="7"/>
       <c r="AC172" s="7"/>
       <c r="AD172" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AE172" s="10"/>
       <c r="AF172" s="7"/>
       <c r="AG172" s="7"/>
       <c r="AH172" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AI172" s="7"/>
       <c r="AJ172" s="7" t="n">
@@ -15945,10 +15941,10 @@
         <v>411</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>85</v>
@@ -15989,7 +15985,7 @@
         <v>158</v>
       </c>
       <c r="AL173" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM173" s="26" t="n">
         <v>400</v>
@@ -16012,13 +16008,13 @@
         <v>411</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="H174" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="9" t="n">
@@ -16028,7 +16024,7 @@
       <c r="L174" s="9"/>
       <c r="M174" s="7"/>
       <c r="N174" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
@@ -16037,7 +16033,7 @@
         <v>92</v>
       </c>
       <c r="S174" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T174" s="7"/>
       <c r="U174" s="7"/>
@@ -16045,7 +16041,7 @@
       <c r="W174" s="7"/>
       <c r="X174" s="7"/>
       <c r="Y174" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Z174" s="7"/>
       <c r="AA174" s="16"/>
@@ -16089,13 +16085,13 @@
         <v>411</v>
       </c>
       <c r="F175" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>548</v>
-      </c>
       <c r="H175" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="9" t="n">
@@ -16105,7 +16101,7 @@
       <c r="L175" s="9"/>
       <c r="M175" s="7"/>
       <c r="N175" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
@@ -16114,7 +16110,7 @@
         <v>92</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T175" s="7"/>
       <c r="U175" s="7"/>
@@ -16122,7 +16118,7 @@
       <c r="W175" s="7"/>
       <c r="X175" s="7"/>
       <c r="Y175" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Z175" s="7"/>
       <c r="AA175" s="16"/>
@@ -16166,13 +16162,13 @@
         <v>411</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G176" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="H176" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="9" t="n">
@@ -16182,7 +16178,7 @@
       <c r="L176" s="9"/>
       <c r="M176" s="7"/>
       <c r="N176" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
@@ -16191,7 +16187,7 @@
         <v>92</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T176" s="7"/>
       <c r="U176" s="7"/>
@@ -16199,7 +16195,7 @@
       <c r="W176" s="7"/>
       <c r="X176" s="7"/>
       <c r="Y176" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Z176" s="7"/>
       <c r="AA176" s="16"/>
@@ -16243,13 +16239,13 @@
         <v>411</v>
       </c>
       <c r="F177" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="G177" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="G177" s="8" t="s">
-        <v>554</v>
-      </c>
       <c r="H177" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="9" t="n">
@@ -16259,7 +16255,7 @@
       <c r="L177" s="9"/>
       <c r="M177" s="7"/>
       <c r="N177" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
@@ -16268,7 +16264,7 @@
         <v>92</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T177" s="7"/>
       <c r="U177" s="7"/>
@@ -16276,7 +16272,7 @@
       <c r="W177" s="7"/>
       <c r="X177" s="7"/>
       <c r="Y177" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Z177" s="7"/>
       <c r="AA177" s="16"/>
@@ -16314,22 +16310,22 @@
         <v>40</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E178" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="F178" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="F178" s="26" t="s">
+      <c r="G178" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="G178" s="26" t="s">
+      <c r="H178" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="I178" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
@@ -16341,7 +16337,7 @@
       <c r="Q178" s="7"/>
       <c r="R178" s="7"/>
       <c r="S178" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T178" s="7"/>
       <c r="U178" s="7"/>
@@ -16379,22 +16375,22 @@
         <v>40</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E179" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F179" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="G179" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="G179" s="22" t="s">
-        <v>565</v>
-      </c>
       <c r="H179" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="I179" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="I179" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
@@ -16406,7 +16402,7 @@
       <c r="Q179" s="7"/>
       <c r="R179" s="7"/>
       <c r="S179" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T179" s="7"/>
       <c r="U179" s="7"/>
@@ -16429,7 +16425,7 @@
         <v>163</v>
       </c>
       <c r="AL179" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AM179" s="7"/>
     </row>
@@ -16444,38 +16440,38 @@
         <v>40</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E180" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F180" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="F180" s="26" t="s">
+      <c r="G180" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="H180" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G180" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="H180" s="7" t="s">
+      <c r="I180" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I180" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
       <c r="M180" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="N180" s="31" t="s">
         <v>571</v>
-      </c>
-      <c r="N180" s="31" t="s">
-        <v>572</v>
       </c>
       <c r="O180" s="32"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
       <c r="R180" s="7"/>
       <c r="S180" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T180" s="7"/>
       <c r="U180" s="7"/>
@@ -16513,38 +16509,38 @@
         <v>40</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E181" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F181" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F181" s="33" t="s">
+      <c r="G181" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="H181" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G181" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H181" s="7" t="s">
+      <c r="I181" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I181" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
       <c r="M181" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N181" s="31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O181" s="32"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
       <c r="R181" s="7"/>
       <c r="S181" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T181" s="7"/>
       <c r="U181" s="7"/>
@@ -16582,38 +16578,38 @@
         <v>40</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E182" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F182" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F182" s="33" t="s">
+      <c r="G182" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="H182" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G182" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H182" s="7" t="s">
+      <c r="I182" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I182" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
       <c r="M182" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N182" s="31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O182" s="32"/>
       <c r="P182" s="7"/>
       <c r="Q182" s="7"/>
       <c r="R182" s="7"/>
       <c r="S182" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T182" s="7"/>
       <c r="U182" s="7"/>
@@ -16651,38 +16647,38 @@
         <v>40</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E183" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F183" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F183" s="33" t="s">
+      <c r="G183" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="H183" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G183" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H183" s="7" t="s">
+      <c r="I183" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I183" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
       <c r="M183" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N183" s="31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O183" s="32"/>
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
       <c r="S183" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T183" s="7"/>
       <c r="U183" s="7"/>
@@ -16720,22 +16716,22 @@
         <v>40</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E184" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="F184" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="F184" s="26" t="s">
+      <c r="G184" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="G184" s="26" t="s">
+      <c r="H184" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="H184" s="7" t="s">
+      <c r="I184" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="I184" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
@@ -16747,7 +16743,7 @@
       <c r="Q184" s="7"/>
       <c r="R184" s="7"/>
       <c r="S184" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T184" s="7"/>
       <c r="U184" s="7"/>
@@ -16785,22 +16781,22 @@
         <v>40</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E185" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="F185" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="F185" s="26" t="s">
+      <c r="G185" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="G185" s="26" t="s">
+      <c r="H185" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="H185" s="7" t="s">
-        <v>584</v>
-      </c>
       <c r="I185" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
@@ -16812,7 +16808,7 @@
       <c r="Q185" s="7"/>
       <c r="R185" s="7"/>
       <c r="S185" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T185" s="7"/>
       <c r="U185" s="7"/>
@@ -16850,43 +16846,43 @@
         <v>40</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E186" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F186" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="F186" s="26" t="s">
+      <c r="G186" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="G186" s="26" t="s">
+      <c r="H186" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="H186" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="I186" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
       <c r="M186" s="7"/>
       <c r="N186" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O186" s="7"/>
       <c r="P186" s="7"/>
       <c r="Q186" s="7"/>
       <c r="R186" s="7"/>
       <c r="S186" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T186" s="7"/>
       <c r="U186" s="7"/>
       <c r="V186" s="7"/>
       <c r="W186" s="7"/>
       <c r="X186" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y186" s="7"/>
       <c r="Z186" s="7"/>
@@ -16917,43 +16913,43 @@
         <v>40</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E187" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="F187" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="F187" s="26" t="s">
+      <c r="G187" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="G187" s="26" t="s">
+      <c r="H187" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="H187" s="7" t="s">
-        <v>594</v>
-      </c>
       <c r="I187" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
       <c r="M187" s="7"/>
       <c r="N187" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O187" s="7"/>
       <c r="P187" s="7"/>
       <c r="Q187" s="7"/>
       <c r="R187" s="7"/>
       <c r="S187" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T187" s="7"/>
       <c r="U187" s="7"/>
       <c r="V187" s="7"/>
       <c r="W187" s="7"/>
       <c r="X187" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Y187" s="7"/>
       <c r="Z187" s="7"/>
@@ -16984,38 +16980,38 @@
         <v>40</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E188" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F188" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="F188" s="26" t="s">
+      <c r="G188" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="G188" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="H188" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I188" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I188" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
       <c r="M188" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="N188" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="N188" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="O188" s="7"/>
       <c r="P188" s="7"/>
       <c r="Q188" s="7"/>
       <c r="R188" s="7"/>
       <c r="S188" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T188" s="7"/>
       <c r="U188" s="7"/>
@@ -17038,7 +17034,7 @@
         <v>172</v>
       </c>
       <c r="AL188" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM188" s="7"/>
     </row>
@@ -17053,38 +17049,38 @@
         <v>40</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E189" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F189" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="F189" s="26" t="s">
+      <c r="G189" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="G189" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="H189" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I189" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I189" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
       <c r="M189" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N189" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O189" s="7"/>
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
       <c r="R189" s="7"/>
       <c r="S189" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T189" s="7"/>
       <c r="U189" s="7"/>
@@ -17122,38 +17118,38 @@
         <v>40</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E190" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F190" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="F190" s="26" t="s">
+      <c r="G190" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="G190" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="H190" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I190" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I190" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
       <c r="M190" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N190" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O190" s="7"/>
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
       <c r="R190" s="7"/>
       <c r="S190" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T190" s="7"/>
       <c r="U190" s="7"/>
@@ -17176,7 +17172,7 @@
         <v>175</v>
       </c>
       <c r="AL190" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AM190" s="7"/>
     </row>
@@ -17191,20 +17187,20 @@
         <v>40</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E191" s="37"/>
       <c r="F191" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="G191" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="G191" s="37" t="s">
-        <v>607</v>
-      </c>
       <c r="H191" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J191" s="38"/>
       <c r="K191" s="38"/>
@@ -17216,7 +17212,7 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="6"/>
       <c r="S191" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2453,44 +2454,44 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.0161943319838"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="124.14979757085"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.222672064777"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="94.3724696356275"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="95.1214574898785"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1075,10 +1076,10 @@
     <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Grape-Apple - 1L</t>
@@ -2193,7 +2194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2263,6 +2264,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2343,10 +2352,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2446,52 +2451,52 @@
   <dimension ref="A1:AM191"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A151" activeCellId="0" sqref="A151"/>
+      <selection pane="bottomLeft" activeCell="F104" activeCellId="0" sqref="F104:AM104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.7651821862348"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.222672064777"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="126.291497975708"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="95.1214574898785"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="95.9797570850202"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10542,26 +10547,26 @@
       <c r="E104" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="G104" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I104" s="7"/>
-      <c r="J104" s="9" t="n">
+      <c r="I104" s="6"/>
+      <c r="J104" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="7" t="s">
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="N104" s="11" t="n">
-        <v>1111111</v>
+      <c r="N104" s="15" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
@@ -10623,25 +10628,25 @@
       <c r="E105" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="H105" s="18" t="s">
+      <c r="H105" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I105" s="18"/>
-      <c r="J105" s="19" t="n">
+      <c r="I105" s="20"/>
+      <c r="J105" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="18" t="s">
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="N105" s="20" t="n">
+      <c r="N105" s="22" t="n">
         <v>4650075422809</v>
       </c>
       <c r="O105" s="11"/>
@@ -10811,7 +10816,7 @@
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
-      <c r="V107" s="21"/>
+      <c r="V107" s="23"/>
       <c r="W107" s="7"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
@@ -10894,7 +10899,7 @@
       </c>
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
-      <c r="V108" s="21"/>
+      <c r="V108" s="23"/>
       <c r="W108" s="7"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
@@ -11046,7 +11051,7 @@
       </c>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
-      <c r="V110" s="21"/>
+      <c r="V110" s="23"/>
       <c r="W110" s="7"/>
       <c r="X110" s="7"/>
       <c r="Y110" s="7"/>
@@ -11119,7 +11124,7 @@
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
-      <c r="V111" s="21"/>
+      <c r="V111" s="23"/>
       <c r="W111" s="7"/>
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
@@ -11204,7 +11209,7 @@
       </c>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
-      <c r="V112" s="21"/>
+      <c r="V112" s="23"/>
       <c r="W112" s="7"/>
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
@@ -11281,7 +11286,7 @@
       </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
-      <c r="V113" s="21"/>
+      <c r="V113" s="23"/>
       <c r="W113" s="7"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
@@ -11357,7 +11362,7 @@
         <v>93</v>
       </c>
       <c r="T114" s="7"/>
-      <c r="U114" s="21"/>
+      <c r="U114" s="23"/>
       <c r="V114" s="7"/>
       <c r="W114" s="7"/>
       <c r="X114" s="7"/>
@@ -11435,7 +11440,7 @@
       </c>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
-      <c r="V115" s="21"/>
+      <c r="V115" s="23"/>
       <c r="W115" s="7"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
@@ -11506,7 +11511,7 @@
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
-      <c r="V116" s="21"/>
+      <c r="V116" s="23"/>
       <c r="W116" s="7"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
@@ -11589,7 +11594,7 @@
       </c>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
-      <c r="V117" s="21"/>
+      <c r="V117" s="23"/>
       <c r="W117" s="7"/>
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
@@ -11735,7 +11740,7 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
-      <c r="V119" s="21"/>
+      <c r="V119" s="23"/>
       <c r="W119" s="7"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
@@ -11812,7 +11817,7 @@
       </c>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
-      <c r="V120" s="21"/>
+      <c r="V120" s="23"/>
       <c r="W120" s="7"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
@@ -11889,7 +11894,7 @@
       </c>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
-      <c r="V121" s="21"/>
+      <c r="V121" s="23"/>
       <c r="W121" s="7"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
@@ -11962,7 +11967,7 @@
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
-      <c r="V122" s="21"/>
+      <c r="V122" s="23"/>
       <c r="W122" s="7"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
@@ -12045,7 +12050,7 @@
       </c>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
-      <c r="V123" s="21"/>
+      <c r="V123" s="23"/>
       <c r="W123" s="7"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
@@ -12196,7 +12201,7 @@
         <v>93</v>
       </c>
       <c r="T125" s="7"/>
-      <c r="U125" s="21"/>
+      <c r="U125" s="23"/>
       <c r="V125" s="7"/>
       <c r="W125" s="7"/>
       <c r="X125" s="7"/>
@@ -12917,7 +12922,7 @@
         <v>118</v>
       </c>
       <c r="AL134" s="7"/>
-      <c r="AM134" s="22" t="n">
+      <c r="AM134" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -12996,7 +13001,7 @@
         <v>119</v>
       </c>
       <c r="AL135" s="7"/>
-      <c r="AM135" s="22" t="n">
+      <c r="AM135" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13075,7 +13080,7 @@
         <v>120</v>
       </c>
       <c r="AL136" s="7"/>
-      <c r="AM136" s="22" t="n">
+      <c r="AM136" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13154,7 +13159,7 @@
         <v>121</v>
       </c>
       <c r="AL137" s="7"/>
-      <c r="AM137" s="22" t="n">
+      <c r="AM137" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13233,7 +13238,7 @@
         <v>122</v>
       </c>
       <c r="AL138" s="7"/>
-      <c r="AM138" s="22" t="n">
+      <c r="AM138" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13312,7 +13317,7 @@
         <v>123</v>
       </c>
       <c r="AL139" s="7"/>
-      <c r="AM139" s="22" t="n">
+      <c r="AM139" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13391,7 +13396,7 @@
         <v>124</v>
       </c>
       <c r="AL140" s="7"/>
-      <c r="AM140" s="22" t="n">
+      <c r="AM140" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13470,7 +13475,7 @@
         <v>125</v>
       </c>
       <c r="AL141" s="7"/>
-      <c r="AM141" s="22" t="n">
+      <c r="AM141" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13549,7 +13554,7 @@
         <v>126</v>
       </c>
       <c r="AL142" s="7"/>
-      <c r="AM142" s="22" t="n">
+      <c r="AM142" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13707,7 +13712,7 @@
       <c r="AL144" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="AM144" s="22" t="n">
+      <c r="AM144" s="24" t="n">
         <v>502</v>
       </c>
     </row>
@@ -13786,7 +13791,7 @@
         <v>129</v>
       </c>
       <c r="AL145" s="7"/>
-      <c r="AM145" s="22" t="n">
+      <c r="AM145" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -13865,7 +13870,7 @@
         <v>130</v>
       </c>
       <c r="AL146" s="7"/>
-      <c r="AM146" s="22" t="n">
+      <c r="AM146" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -13944,7 +13949,7 @@
         <v>131</v>
       </c>
       <c r="AL147" s="7"/>
-      <c r="AM147" s="22" t="n">
+      <c r="AM147" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14023,7 +14028,7 @@
         <v>132</v>
       </c>
       <c r="AL148" s="7"/>
-      <c r="AM148" s="22" t="n">
+      <c r="AM148" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14102,7 +14107,7 @@
         <v>133</v>
       </c>
       <c r="AL149" s="7"/>
-      <c r="AM149" s="22" t="n">
+      <c r="AM149" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14497,7 +14502,7 @@
       <c r="AL154" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="AM154" s="22" t="n">
+      <c r="AM154" s="24" t="n">
         <v>504</v>
       </c>
     </row>
@@ -14576,7 +14581,7 @@
         <v>139</v>
       </c>
       <c r="AL155" s="7"/>
-      <c r="AM155" s="22" t="n">
+      <c r="AM155" s="24" t="n">
         <v>138</v>
       </c>
     </row>
@@ -14655,7 +14660,7 @@
         <v>140</v>
       </c>
       <c r="AL156" s="7"/>
-      <c r="AM156" s="22" t="n">
+      <c r="AM156" s="24" t="n">
         <v>138</v>
       </c>
     </row>
@@ -15185,7 +15190,7 @@
       <c r="AE163" s="10" t="n">
         <v>0.025</v>
       </c>
-      <c r="AF163" s="23"/>
+      <c r="AF163" s="25"/>
       <c r="AG163" s="7"/>
       <c r="AH163" s="7" t="s">
         <v>497</v>
@@ -15259,7 +15264,7 @@
       <c r="X164" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="Y164" s="24" t="s">
+      <c r="Y164" s="26" t="s">
         <v>509</v>
       </c>
       <c r="Z164" s="7"/>
@@ -15342,7 +15347,7 @@
       <c r="X165" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="Y165" s="25" t="s">
+      <c r="Y165" s="27" t="s">
         <v>513</v>
       </c>
       <c r="Z165" s="7"/>
@@ -15765,7 +15770,7 @@
         <v>155</v>
       </c>
       <c r="AL170" s="7"/>
-      <c r="AM170" s="26" t="n">
+      <c r="AM170" s="28" t="n">
         <v>312</v>
       </c>
     </row>
@@ -15782,7 +15787,7 @@
       <c r="D171" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="28" t="s">
         <v>411</v>
       </c>
       <c r="F171" s="7" t="s">
@@ -15840,7 +15845,7 @@
       <c r="AL171" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="AM171" s="26" t="n">
+      <c r="AM171" s="28" t="n">
         <v>301</v>
       </c>
     </row>
@@ -15857,7 +15862,7 @@
       <c r="D172" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E172" s="26" t="s">
+      <c r="E172" s="28" t="s">
         <v>411</v>
       </c>
       <c r="F172" s="7" t="s">
@@ -15965,7 +15970,7 @@
       <c r="U173" s="7"/>
       <c r="V173" s="7"/>
       <c r="W173" s="7"/>
-      <c r="X173" s="27"/>
+      <c r="X173" s="29"/>
       <c r="Y173" s="7"/>
       <c r="Z173" s="7"/>
       <c r="AA173" s="16"/>
@@ -15988,7 +15993,7 @@
       <c r="AL173" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="AM173" s="26" t="n">
+      <c r="AM173" s="28" t="n">
         <v>400</v>
       </c>
     </row>
@@ -16239,7 +16244,7 @@
       <c r="E177" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F177" s="28" t="s">
+      <c r="F177" s="30" t="s">
         <v>552</v>
       </c>
       <c r="G177" s="8" t="s">
@@ -16255,7 +16260,7 @@
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="7"/>
-      <c r="N177" s="29" t="s">
+      <c r="N177" s="31" t="s">
         <v>554</v>
       </c>
       <c r="O177" s="11"/>
@@ -16272,7 +16277,7 @@
       <c r="V177" s="7"/>
       <c r="W177" s="7"/>
       <c r="X177" s="7"/>
-      <c r="Y177" s="29" t="s">
+      <c r="Y177" s="31" t="s">
         <v>554</v>
       </c>
       <c r="Z177" s="7"/>
@@ -16313,13 +16318,13 @@
       <c r="D178" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F178" s="26" t="s">
+      <c r="F178" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="G178" s="26" t="s">
+      <c r="G178" s="28" t="s">
         <v>558</v>
       </c>
       <c r="H178" s="7" t="s">
@@ -16384,7 +16389,7 @@
       <c r="F179" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G179" s="22" t="s">
+      <c r="G179" s="24" t="s">
         <v>564</v>
       </c>
       <c r="H179" s="7" t="s">
@@ -16397,7 +16402,7 @@
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
       <c r="M179" s="7"/>
-      <c r="N179" s="30"/>
+      <c r="N179" s="32"/>
       <c r="O179" s="7"/>
       <c r="P179" s="7"/>
       <c r="Q179" s="7"/>
@@ -16443,13 +16448,13 @@
       <c r="D180" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F180" s="26" t="s">
+      <c r="F180" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="G180" s="26" t="s">
+      <c r="G180" s="28" t="s">
         <v>539</v>
       </c>
       <c r="H180" s="7" t="s">
@@ -16464,10 +16469,10 @@
       <c r="M180" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N180" s="31" t="s">
+      <c r="N180" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="O180" s="32"/>
+      <c r="O180" s="34"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
       <c r="R180" s="7"/>
@@ -16512,13 +16517,13 @@
       <c r="D181" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E181" s="26" t="s">
+      <c r="E181" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F181" s="33" t="s">
+      <c r="F181" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="G181" s="33" t="s">
+      <c r="G181" s="35" t="s">
         <v>539</v>
       </c>
       <c r="H181" s="7" t="s">
@@ -16533,10 +16538,10 @@
       <c r="M181" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N181" s="31" t="s">
+      <c r="N181" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="O181" s="32"/>
+      <c r="O181" s="34"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
       <c r="R181" s="7"/>
@@ -16581,13 +16586,13 @@
       <c r="D182" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E182" s="26" t="s">
+      <c r="E182" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F182" s="33" t="s">
+      <c r="F182" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="G182" s="33" t="s">
+      <c r="G182" s="35" t="s">
         <v>539</v>
       </c>
       <c r="H182" s="7" t="s">
@@ -16602,10 +16607,10 @@
       <c r="M182" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N182" s="31" t="s">
+      <c r="N182" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="O182" s="32"/>
+      <c r="O182" s="34"/>
       <c r="P182" s="7"/>
       <c r="Q182" s="7"/>
       <c r="R182" s="7"/>
@@ -16650,13 +16655,13 @@
       <c r="D183" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E183" s="26" t="s">
+      <c r="E183" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F183" s="33" t="s">
+      <c r="F183" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="G183" s="33" t="s">
+      <c r="G183" s="35" t="s">
         <v>539</v>
       </c>
       <c r="H183" s="7" t="s">
@@ -16671,10 +16676,10 @@
       <c r="M183" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N183" s="31" t="s">
+      <c r="N183" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="O183" s="32"/>
+      <c r="O183" s="34"/>
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
@@ -16719,13 +16724,13 @@
       <c r="D184" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E184" s="26" t="s">
+      <c r="E184" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F184" s="26" t="s">
+      <c r="F184" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="G184" s="26" t="s">
+      <c r="G184" s="28" t="s">
         <v>577</v>
       </c>
       <c r="H184" s="7" t="s">
@@ -16738,7 +16743,7 @@
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="34"/>
+      <c r="N184" s="36"/>
       <c r="O184" s="7"/>
       <c r="P184" s="7"/>
       <c r="Q184" s="7"/>
@@ -16784,13 +16789,13 @@
       <c r="D185" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E185" s="26" t="s">
+      <c r="E185" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="F185" s="26" t="s">
+      <c r="F185" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="G185" s="26" t="s">
+      <c r="G185" s="28" t="s">
         <v>582</v>
       </c>
       <c r="H185" s="7" t="s">
@@ -16849,13 +16854,13 @@
       <c r="D186" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="F186" s="26" t="s">
+      <c r="F186" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="G186" s="26" t="s">
+      <c r="G186" s="28" t="s">
         <v>586</v>
       </c>
       <c r="H186" s="7" t="s">
@@ -16882,7 +16887,7 @@
       <c r="U186" s="7"/>
       <c r="V186" s="7"/>
       <c r="W186" s="7"/>
-      <c r="X186" s="35" t="s">
+      <c r="X186" s="37" t="s">
         <v>481</v>
       </c>
       <c r="Y186" s="7"/>
@@ -16916,13 +16921,13 @@
       <c r="D187" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E187" s="26" t="s">
+      <c r="E187" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="F187" s="26" t="s">
+      <c r="F187" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="G187" s="26" t="s">
+      <c r="G187" s="28" t="s">
         <v>592</v>
       </c>
       <c r="H187" s="7" t="s">
@@ -16949,7 +16954,7 @@
       <c r="U187" s="7"/>
       <c r="V187" s="7"/>
       <c r="W187" s="7"/>
-      <c r="X187" s="35" t="s">
+      <c r="X187" s="37" t="s">
         <v>595</v>
       </c>
       <c r="Y187" s="7"/>
@@ -16983,13 +16988,13 @@
       <c r="D188" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E188" s="26" t="s">
+      <c r="E188" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F188" s="26" t="s">
+      <c r="F188" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="G188" s="26" t="s">
+      <c r="G188" s="28" t="s">
         <v>598</v>
       </c>
       <c r="H188" s="7" t="s">
@@ -17052,13 +17057,13 @@
       <c r="D189" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E189" s="26" t="s">
+      <c r="E189" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F189" s="26" t="s">
+      <c r="F189" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="G189" s="26" t="s">
+      <c r="G189" s="28" t="s">
         <v>598</v>
       </c>
       <c r="H189" s="7" t="s">
@@ -17073,7 +17078,7 @@
       <c r="M189" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="N189" s="36" t="s">
+      <c r="N189" s="38" t="s">
         <v>602</v>
       </c>
       <c r="O189" s="7"/>
@@ -17121,13 +17126,13 @@
       <c r="D190" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E190" s="26" t="s">
+      <c r="E190" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F190" s="26" t="s">
+      <c r="F190" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="G190" s="26" t="s">
+      <c r="G190" s="28" t="s">
         <v>598</v>
       </c>
       <c r="H190" s="7" t="s">
@@ -17142,7 +17147,7 @@
       <c r="M190" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="N190" s="36" t="s">
+      <c r="N190" s="38" t="s">
         <v>603</v>
       </c>
       <c r="O190" s="7"/>
@@ -17190,11 +17195,11 @@
       <c r="D191" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37" t="s">
+      <c r="E191" s="39"/>
+      <c r="F191" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="G191" s="37" t="s">
+      <c r="G191" s="39" t="s">
         <v>606</v>
       </c>
       <c r="H191" s="6" t="s">
@@ -17203,10 +17208,10 @@
       <c r="I191" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="J191" s="38"/>
-      <c r="K191" s="38"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
       <c r="L191" s="6"/>
-      <c r="M191" s="39"/>
+      <c r="M191" s="40"/>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
       <c r="P191" s="6"/>
@@ -17224,12 +17229,12 @@
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
-      <c r="AC191" s="40"/>
+      <c r="AC191" s="41"/>
       <c r="AD191" s="6"/>
       <c r="AE191" s="6"/>
       <c r="AF191" s="6"/>
       <c r="AG191" s="6"/>
-      <c r="AH191" s="41"/>
+      <c r="AH191" s="42"/>
       <c r="AI191" s="6"/>
       <c r="AJ191" s="6"/>
       <c r="AK191" s="6" t="n">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1323,7 +1324,7 @@
     <t xml:space="preserve">NCB Дисплей: Фейсинги</t>
   </si>
   <si>
-    <t xml:space="preserve">ice tea, water</t>
+    <t xml:space="preserve">ice tea, Water</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Display: Zone</t>
@@ -2451,52 +2452,51 @@
   <dimension ref="A1:AM191"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F104" activeCellId="0" sqref="F104:AM104"/>
+      <selection pane="bottomLeft" activeCell="N128" activeCellId="0" sqref="N128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="126.291497975708"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="127.46963562753"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="95.9797570850202"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="96.834008097166"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
